--- a/Document_Api/API-V-0.1.xlsx
+++ b/Document_Api/API-V-0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
   <si>
     <t>Base URL:</t>
   </si>
@@ -359,12 +359,6 @@
   </si>
   <si>
     <t>deleteRating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Path </t>
-  </si>
-  <si>
-    <t>http://host_name/mobiapp/uploads/model_name/record_id/image_name e.g http://localhost/mobiapp/uploads/product/1/small_Image056.jpg</t>
   </si>
 </sst>
 </file>
@@ -811,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P775"/>
+  <dimension ref="A1:P774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,70 +844,69 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -922,29 +915,43 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -952,21 +959,15 @@
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>14</v>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -978,21 +979,23 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1006,83 +1009,71 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
+      <c r="C8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>27</v>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1094,8 +1085,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="3"/>
@@ -1112,29 +1105,43 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>6</v>
@@ -1142,21 +1149,15 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>65</v>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1168,21 +1169,23 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1196,19 +1199,19 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>25</v>
@@ -1226,19 +1229,19 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>27</v>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>25</v>
@@ -1254,65 +1257,69 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1322,9 +1329,9 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>6</v>
@@ -1332,21 +1339,15 @@
       <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>66</v>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1358,21 +1359,23 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1386,19 +1389,19 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
+      <c r="C22" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>25</v>
@@ -1416,19 +1419,19 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>27</v>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>25</v>
@@ -1444,65 +1447,69 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1512,9 +1519,9 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>6</v>
@@ -1522,21 +1529,15 @@
       <c r="C27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>67</v>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1548,21 +1549,23 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1576,19 +1579,19 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
+      <c r="C29" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>25</v>
@@ -1606,19 +1609,19 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>27</v>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>25</v>
@@ -1634,65 +1637,69 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -1702,9 +1709,9 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>6</v>
@@ -1712,21 +1719,15 @@
       <c r="C34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>89</v>
+      <c r="D34" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1738,21 +1739,23 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -1766,19 +1769,19 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>7</v>
+      <c r="C36" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>25</v>
@@ -1796,19 +1799,19 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>27</v>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>25</v>
@@ -1824,65 +1827,69 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -1892,9 +1899,9 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>6</v>
@@ -1902,21 +1909,15 @@
       <c r="C41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>99</v>
+      <c r="D41" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -1928,21 +1929,23 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -1956,19 +1959,19 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>7</v>
+      <c r="C43" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>25</v>
@@ -1986,19 +1989,19 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>27</v>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>25</v>
@@ -2014,35 +2017,23 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -15166,34 +15157,15 @@
       <c r="O774" s="3"/>
       <c r="P774" s="3"/>
     </row>
-    <row r="775" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A775" s="3"/>
-      <c r="B775" s="3"/>
-      <c r="C775" s="8"/>
-      <c r="D775" s="3"/>
-      <c r="E775" s="7"/>
-      <c r="F775" s="3"/>
-      <c r="G775" s="3"/>
-      <c r="H775" s="3"/>
-      <c r="I775" s="3"/>
-      <c r="J775" s="3"/>
-      <c r="K775" s="3"/>
-      <c r="L775" s="3"/>
-      <c r="M775" s="3"/>
-      <c r="N775" s="3"/>
-      <c r="O775" s="3"/>
-      <c r="P775" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D27" r:id="rId5" display="http://host_name/mobiapp/api/order"/>
-    <hyperlink ref="D34" r:id="rId6" display="http://host_name/mobiapp/api/order"/>
-    <hyperlink ref="D41" r:id="rId7" display="http://host_name/mobiapp/api/order"/>
-    <hyperlink ref="D2" r:id="rId8" display="http://host_name/mobiapp/uploads/model_name/user_id/record_id/image_name"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="D19" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId5" display="http://host_name/mobiapp/api/order"/>
+    <hyperlink ref="D33" r:id="rId6" display="http://host_name/mobiapp/api/order"/>
+    <hyperlink ref="D40" r:id="rId7" display="http://host_name/mobiapp/api/order"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
